--- a/Taller mecanico/Esquema.xlsx
+++ b/Taller mecanico/Esquema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eneko\Documents\GitHub\EXTENSIONES-NAV\Taller mecanico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D8AEA-6C5B-4080-A035-C08FBF11FA42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D92A0B-913F-43B0-8BEB-2A9BF7AA39E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2AA83D62-AB20-4B03-BCE9-0B9505C623AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>TALLERES</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Text 200</t>
+  </si>
+  <si>
+    <t>Clientes</t>
   </si>
 </sst>
 </file>
@@ -610,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30C26DC-A919-452C-896B-CB08752EEB45}">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +624,7 @@
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -630,8 +633,12 @@
         <v>12</v>
       </c>
       <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
@@ -641,29 +648,57 @@
       <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="12">
+        <v>50401</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12">
+        <v>50402</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="10">
+        <v>50400</v>
+      </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="12">
+        <v>50401</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="12">
+        <v>50402</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="10">
+        <v>50403</v>
+      </c>
       <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="12">
+        <v>50405</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="12">
+        <v>50404</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -676,8 +711,14 @@
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -690,8 +731,14 @@
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -704,8 +751,14 @@
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,8 +771,14 @@
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -732,8 +791,14 @@
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -746,8 +811,14 @@
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -758,8 +829,12 @@
         <v>23</v>
       </c>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -768,8 +843,10 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -778,8 +855,10 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -788,8 +867,10 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
@@ -798,6 +879,8 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Taller mecanico/Esquema.xlsx
+++ b/Taller mecanico/Esquema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eneko\Documents\GitHub\EXTENSIONES-NAV\Taller mecanico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D92A0B-913F-43B0-8BEB-2A9BF7AA39E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5FB0D0-570B-4A6B-B655-F5E1DCFD7A8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2AA83D62-AB20-4B03-BCE9-0B9505C623AC}"/>
   </bookViews>

--- a/Taller mecanico/Esquema.xlsx
+++ b/Taller mecanico/Esquema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eneko\Documents\GitHub\EXTENSIONES-NAV\Taller mecanico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5FB0D0-570B-4A6B-B655-F5E1DCFD7A8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ECF2CC-5FC4-413A-BCBD-1DF28BE88936}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2AA83D62-AB20-4B03-BCE9-0B9505C623AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>TALLERES</t>
   </si>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t>Clientes</t>
+  </si>
+  <si>
+    <t>Vehiculos</t>
+  </si>
+  <si>
+    <t>Matricula</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Descripcion marca</t>
+  </si>
+  <si>
+    <t>Descripcion Modelo</t>
+  </si>
+  <si>
+    <t>Partes</t>
+  </si>
+  <si>
+    <t>Integer</t>
   </si>
 </sst>
 </file>
@@ -613,18 +637,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30C26DC-A919-452C-896B-CB08752EEB45}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -637,8 +662,12 @@
         <v>26</v>
       </c>
       <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
@@ -657,8 +686,14 @@
       <c r="I2" s="12">
         <v>50402</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="12">
+        <v>50403</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
@@ -677,28 +712,40 @@
       <c r="I3" s="12">
         <v>50402</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="12">
+        <v>50403</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="10">
-        <v>50403</v>
+        <v>50420</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="12">
-        <v>50405</v>
+        <v>50421</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="12">
-        <v>50404</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50422</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="12">
+        <v>50423</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,8 +764,14 @@
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -737,8 +790,14 @@
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,8 +816,14 @@
       <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,8 +842,14 @@
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +868,14 @@
       <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,8 +894,14 @@
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,8 +916,14 @@
         <v>23</v>
       </c>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -845,8 +934,10 @@
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -857,8 +948,10 @@
       <c r="F13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -869,8 +962,10 @@
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
@@ -881,6 +976,8 @@
       <c r="F15" s="4"/>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Taller mecanico/Esquema.xlsx
+++ b/Taller mecanico/Esquema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eneko\Documents\GitHub\EXTENSIONES-NAV\Taller mecanico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ECF2CC-5FC4-413A-BCBD-1DF28BE88936}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F09B29-622B-400B-B2BC-3F4653F07F75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2AA83D62-AB20-4B03-BCE9-0B9505C623AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>TALLERES</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Integer</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Option</t>
   </si>
 </sst>
 </file>
@@ -640,7 +646,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,8 +940,12 @@
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
